--- a/FarePredictor/model_dev/tested/comparison.xlsx
+++ b/FarePredictor/model_dev/tested/comparison.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josuero.cuevasjuarez/Desktop/Desktop/take_home_assignment/model_dev/tested/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josue\Desktop\ownrepos\FarePredictor\model_dev\tested\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE113D5-5EC1-704A-9547-A88377D49864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21220" yWindow="2880" windowWidth="28240" windowHeight="17440" xr2:uid="{8FAFC16C-6D7A-D946-A331-A1710C2053C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Models Comparison" sheetId="1" r:id="rId1"/>
@@ -151,22 +150,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="164" formatCode="0.00000000_ "/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -236,25 +235,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,34 +569,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB94C40-7054-A745-A24B-586F17AF84B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="10.75" style="1"/>
+    <col min="2" max="2" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" customHeight="1">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" ht="32.1" customHeight="1">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="17">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="31.5">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -614,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -634,7 +638,7 @@
         <v>0.99311351996707398</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -654,7 +658,7 @@
         <v>1.56275933694239</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -675,42 +679,42 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="17">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -742,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -782,7 +786,7 @@
         <v>-7.5437545890999491E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -822,7 +826,7 @@
         <v>0.17119156467967001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -863,42 +867,42 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="17">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -930,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17">
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -970,7 +974,7 @@
         <v>-7.4360056026301358E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17">
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>0.16874640062127999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17">
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,43 +1059,43 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="4"/>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" ht="17">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>4</v>
@@ -1124,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17">
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>-1.8528725054349771E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17">
+    <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>0.42047516208415003</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17">
+    <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,28 +1268,28 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" ht="17">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
         <v>4</v>
@@ -1318,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="17">
+    <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>-3.8761616671909582E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17">
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v>0.87962323392197983</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17">
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,20 +1444,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B14:K14"/>
@@ -1465,6 +1455,20 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
